--- a/report/reliability/by-unidade/Campus Sertão (Delmiro Gouveia e Santana do Ipanema).xlsx
+++ b/report/reliability/by-unidade/Campus Sertão (Delmiro Gouveia e Santana do Ipanema).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7871774195558043</v>
+        <v>0.7407704681578018</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.801263098867641</v>
+        <v>0.7551257969059092</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9003424539296442</v>
+        <v>0.8803465821742794</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2514866488697494</v>
+        <v>0.19172975254355284</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.031778166521777</v>
+        <v>3.083729471559563</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.020735971888798443</v>
+        <v>0.023669804275434813</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.425582990397805</v>
+        <v>1.8629313073757519</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7654368299994316</v>
+        <v>0.6272583109338479</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2176950673992173</v>
+        <v>0.1387091202981215</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7592944090214471</v>
+        <v>0.7408541905625126</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7717121476772238</v>
+        <v>0.7465686742211968</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8749010296822638</v>
+        <v>0.8754260924382633</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.23507179513863583</v>
+        <v>0.1971011132746891</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.3804345690111446</v>
+        <v>2.9458421208466063</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.023537295533775236</v>
+        <v>0.02416276521150387</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04517032009700642</v>
+        <v>0.07257157430809871</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.2006048923620672</v>
+        <v>0.18471943343446465</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7667939007337108</v>
+        <v>0.7115469733551376</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7805572296463853</v>
+        <v>0.722622337000887</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8847321745966819</v>
+        <v>0.8599137322158852</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.24434963069670623</v>
+        <v>0.17837442978936846</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.5569967895892787</v>
+        <v>2.6051929675505177</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02284066606909817</v>
+        <v>0.026282941271293925</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04764907998093201</v>
+        <v>0.07142789115161756</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.22082990564684607</v>
+        <v>0.12643283041557557</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7612857713559076</v>
+        <v>0.720848985027264</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7714570042603972</v>
+        <v>0.7307001410483619</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.876260567101576</v>
+        <v>0.8643258700716863</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.23481158151727569</v>
+        <v>0.18441320121427995</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.3755442898778627</v>
+        <v>2.713332802671776</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.023325318582379292</v>
+        <v>0.02540889504612932</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04657238495906107</v>
+        <v>0.07171960124279239</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2145602291515885</v>
+        <v>0.12643283041557557</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7626630580141497</v>
+        <v>0.7287416107308227</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7759328812529125</v>
+        <v>0.7320010880446113</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8808902183789467</v>
+        <v>0.859993919392978</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.23943585645246393</v>
+        <v>0.18541117202039104</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.4629484486241604</v>
+        <v>2.731358432404609</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.023190460596522407</v>
+        <v>0.025111763675415306</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04825343120223677</v>
+        <v>0.057539582235448264</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2145602291515885</v>
+        <v>0.1387091202981215</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7701673233583946</v>
+        <v>0.7057126460552946</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7893768860995056</v>
+        <v>0.7253115260667125</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8654495352615399</v>
+        <v>0.8556309750514735</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.25412689873181044</v>
+        <v>0.18035517137275808</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.7478169963455876</v>
+        <v>2.640487661098098</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.022364560110082532</v>
+        <v>0.02677599120254459</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.0428724590116648</v>
+        <v>0.05702701607840779</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.22082990564684607</v>
+        <v>0.13564350827237004</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.776499546922514</v>
+        <v>0.7135161568242492</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7927044443526231</v>
+        <v>0.7297721743967226</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8676875094430211</v>
+        <v>0.85670058556309</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2579615714528118</v>
+        <v>0.1837057412624956</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.8240300998110377</v>
+        <v>2.7005811587593653</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.021742750865959306</v>
+        <v>0.02600527777190512</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04246545374117042</v>
+        <v>0.05652057937098332</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.24503860331573835</v>
+        <v>0.13564350827237004</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7922567769354469</v>
+        <v>0.7461278039765114</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8105160179328527</v>
+        <v>0.778629745881276</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8926458442587425</v>
+        <v>0.8908472222229147</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2799864822036507</v>
+        <v>0.22667052265829007</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.277490947206454</v>
+        <v>3.51731875170404</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.020259414595459307</v>
+        <v>0.02374481208646706</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.044046348892291094</v>
+        <v>0.06274587327755313</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2475221294906708</v>
+        <v>0.18471943343446465</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8048813812557097</v>
+        <v>0.7433593387732016</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8111315698851356</v>
+        <v>0.7569844578630986</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8928035856720338</v>
+        <v>0.8712350469004868</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2807961983116675</v>
+        <v>0.20608473315943432</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.294691121177998</v>
+        <v>3.114963146828922</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.01879507853802301</v>
+        <v>0.02296925140274975</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04382167097537885</v>
+        <v>0.06910869764581895</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2475221294906708</v>
+        <v>0.18471943343446465</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.773050305346485</v>
+        <v>0.7598100476962428</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7896097091300265</v>
+        <v>0.7593034111136909</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9003143633072221</v>
+        <v>0.8748740246158282</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2543925284894957</v>
+        <v>0.20816164207774504</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.7530710465057737</v>
+        <v>3.154608109017871</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.0224030331571261</v>
+        <v>0.021037028514541766</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.05403826655303181</v>
+        <v>0.06976460075946916</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2145602291515885</v>
+        <v>0.18471943343446465</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7691228588304784</v>
+        <v>0.7140506793368462</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7850818897476811</v>
+        <v>0.7353390348505331</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8974351449870221</v>
+        <v>0.8775468190916726</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.24929715509808476</v>
+        <v>0.18800515405948892</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.6529350124378834</v>
+        <v>2.778418927155545</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.022685194054709527</v>
+        <v>0.026419649670098983</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.054262555869775256</v>
+        <v>0.07644585114091623</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.21246506139756002</v>
+        <v>0.1331992225179006</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7612474411457487</v>
+        <v>0.7188013565065335</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.778289741348609</v>
+        <v>0.7389552775770505</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8755856907245094</v>
+        <v>0.8778052390806775</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.24192257486944868</v>
+        <v>0.1908709323846074</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.5103912019351444</v>
+        <v>2.8307612225148984</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.0234214888067426</v>
+        <v>0.025721746399492883</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04972720448646979</v>
+        <v>0.07747215047391504</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.2006048923620672</v>
+        <v>0.14693026707579634</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7654492768459906</v>
+        <v>0.7010888548949392</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7817935397947958</v>
+        <v>0.7245046553719883</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8793153895220513</v>
+        <v>0.8520522518213409</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24568751347494172</v>
+        <v>0.17975781183632036</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.582815738175613</v>
+        <v>2.629825401769502</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.023007325894281574</v>
+        <v>0.027469263051458716</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.050292451731985814</v>
+        <v>0.07163876796135416</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2006048923620672</v>
+        <v>0.12643283041557557</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.708075887538598</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7296003668968903</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.856417413699627</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.18357515795631815</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.698229870077807</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.026756304597909602</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.07295767250535667</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.12643283041557557</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>243.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6609839968270745</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6945260717210896</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6869994094582322</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5751758378499858</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.2016460905349793</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.2249461812495246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5906462511203618</v>
+        <v>0.3282069471153908</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6186231980647451</v>
+        <v>0.44977025594119746</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5892275905491935</v>
+        <v>0.3941386959108951</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.48354011671204966</v>
+        <v>0.304142319951764</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.683127572016461</v>
+        <v>0.9506172839506173</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.3308184628937154</v>
+        <v>0.21711298242630986</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6578972770105519</v>
+        <v>0.5929510134079569</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6966549046263659</v>
+        <v>0.6384504660032106</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6865374595385995</v>
+        <v>0.6183962243327503</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.583341575798962</v>
+        <v>0.4817934225059601</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.353909465020576</v>
+        <v>3.2016460905349793</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0748126609936997</v>
+        <v>1.2249461812495246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6281905219250967</v>
+        <v>0.5299697416695246</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6588232623256483</v>
+        <v>0.5776069823259258</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6369801730378718</v>
+        <v>0.548775168603613</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.534138137152456</v>
+        <v>0.3969627061933707</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.654320987654321</v>
+        <v>3.683127572016461</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2546820791266866</v>
+        <v>1.3308184628937154</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5717952398425389</v>
+        <v>0.5699738789402888</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5386344188146981</v>
+        <v>0.567551953549453</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5585909746348914</v>
+        <v>0.5922212198871352</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4467516335152369</v>
+        <v>0.5342000127081971</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.7407407407407407</v>
+        <v>0.21810699588477367</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.4891711970067412</v>
+        <v>0.41381279562972484</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5427711876146124</v>
+        <v>0.6359153138527377</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5072625889052517</v>
+        <v>0.6184935559435369</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5252143356814833</v>
+        <v>0.6504825396646786</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.39737500115881363</v>
+        <v>0.5064529080360238</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.8271604938271605</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6448526532777326</v>
+        <v>1.4891711970067412</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.33439566075992355</v>
+        <v>0.6054327120325967</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.327074655248786</v>
+        <v>0.5847349765817036</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.2682815264021132</v>
+        <v>0.6157151186636078</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.20339613237987247</v>
+        <v>0.4523784097675208</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.9465020576131686</v>
+        <v>0.8271604938271605</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2732215383583292</v>
+        <v>1.6448526532777326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3450838959160505</v>
+        <v>0.04578760658176962</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.32045028913886403</v>
+        <v>0.1518444444497566</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.2613135792717764</v>
+        <v>0.05816136698982117</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.16466443387293672</v>
+        <v>0.0191788044757632</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.3703703703703702</v>
+        <v>0.9506172839506173</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7304595800326346</v>
+        <v>0.21711298242630986</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5582597663914383</v>
+        <v>0.3469967245746592</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.536461275972194</v>
+        <v>0.35925602856614186</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4547471693835054</v>
+        <v>0.31147648200572586</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.42288300125814715</v>
+        <v>0.1994137370473182</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.2674897119341564</v>
+        <v>2.9465020576131686</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5714566184974175</v>
+        <v>1.2732215383583292</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5748089584011956</v>
+        <v>0.35708288568219326</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5781470204908864</v>
+        <v>0.33833018703666223</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5037880457591122</v>
+        <v>0.2826188288879093</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.45690670075307493</v>
+        <v>0.15326265729394428</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.1893004115226335</v>
+        <v>3.3703703703703702</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4190151704643945</v>
+        <v>1.7304595800326346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6384890466568731</v>
+        <v>0.5949043933115815</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.638479177475048</v>
+        <v>0.5414163553044284</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6220101246347093</v>
+        <v>0.4618816672297131</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5388932579956265</v>
+        <v>0.4474738745832001</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.0</v>
+        <v>1.2674897119341564</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3422566418394</v>
+        <v>1.5714566184974175</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>243.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6021390847540667</v>
+        <v>0.5517305708354078</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.607677849136344</v>
+        <v>0.5125422806825998</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5853449238971341</v>
+        <v>0.43307104480679437</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5005585533544119</v>
+        <v>0.41254454061989787</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.1893004115226335</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4190151704643945</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>243.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6621995554091417</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6245122363418023</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6122754405609339</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.553192148982506</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.0</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3422566418394</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>243.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6171805390245534</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5860506652704918</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5669664971848661</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5038204592236396</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.8724279835390947</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2905333439864923</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.04938271604938271</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.09465020576131687</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.012345679012345678</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.3662551440329218</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.40329218106995884</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.04938271604938271</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.01646090534979424</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.05761316872427984</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.32510288065843623</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.18106995884773663</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0205761316872428</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.07818930041152264</v>
+        <v>0.9506172839506173</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.024691358024691357</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.35802469135802467</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4403292181069959</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07818930041152264</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0205761316872428</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.024691358024691357</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.08641975308641975</v>
+        <v>0.012345679012345678</v>
       </c>
       <c r="E46" t="n" s="112">
+        <v>0.3662551440329218</v>
+      </c>
+      <c r="F46" t="n" s="113">
         <v>0.40329218106995884</v>
       </c>
-      <c r="F46" t="n" s="113">
-        <v>0.07818930041152264</v>
-      </c>
       <c r="G46" t="n" s="114">
-        <v>0.3868312757201646</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7818930041152263</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.0205761316872428</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.00411522633744856</v>
+        <v>0.05761316872427984</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.09053497942386832</v>
+        <v>0.32510288065843623</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.07407407407407407</v>
+        <v>0.18106995884773663</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.02880658436213992</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7818930041152263</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.21810699588477367</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.02880658436213992</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.06172839506172839</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.053497942386831275</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.07407407407407407</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.04938271604938271</v>
+        <v>0.7818930041152263</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.14814814814814814</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.03292181069958848</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4074074074074074</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.3004115226337449</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.06172839506172839</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.04938271604938271</v>
+        <v>0.7818930041152263</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.14814814814814814</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.17695473251028807</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.09053497942386832</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.07818930041152264</v>
+        <v>0.053497942386831275</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.4567901234567901</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5308641975308642</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.11934156378600823</v>
+        <v>0.9506172839506173</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.053497942386831275</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.1440329218106996</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.1522633744855967</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.205761316872428</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C52" t="n" s="110">
         <v>0.14814814814814814</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.05761316872427984</v>
+        <v>0.03292181069958848</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4279835390946502</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.16049382716049382</v>
+        <v>0.3004115226337449</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.20164609053497942</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.13580246913580246</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.27983539094650206</v>
+        <v>0.17695473251028807</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.22633744855967078</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.15637860082304528</v>
+        <v>0.07818930041152264</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.22633744855967078</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.11522633744855967</v>
+        <v>0.11934156378600823</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.32510288065843623</v>
+        <v>0.053497942386831275</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.22633744855967078</v>
+        <v>0.1440329218106996</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.10699588477366255</v>
+        <v>0.1522633744855967</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.205761316872428</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05761316872427984</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4279835390946502</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.16049382716049382</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.20164609053497942</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.13580246913580246</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.27983539094650206</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.22633744855967078</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.15637860082304528</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.22633744855967078</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.11522633744855967</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.32510288065843623</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.22633744855967078</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.10699588477366255</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8688987155190566</v>
+        <v>0.8783694428228759</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8724175358932198</v>
+        <v>0.9844993073986672</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8750493721621267</v>
+        <v>0.9779738238128605</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.63093052334689</v>
+        <v>0.954896202399517</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.838067770528793</v>
+        <v>63.513246325135924</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.013987823429530378</v>
+        <v>0.002395305559572742</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.4732510288065845</v>
+        <v>0.5953360768175583</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0376708894156532</v>
+        <v>1.168705897452356</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6472833041428585</v>
+        <v>0.9541070471126587</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8158321958886545</v>
+        <v>0.9806705114392547</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.822294059102676</v>
+        <v>0.9831372754071086</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7691897813038295</v>
+        <v>0.966833822924048</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6066746722139608</v>
+        <v>0.9668338229240478</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.627273882631675</v>
+        <v>58.302397693285634</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.020576042262469594</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.010385474462555229</v>
-      </c>
+        <v>0.002310520721371449</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5800396800827127</v>
+        <v>0.9668338229240478</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8455774796106288</v>
+        <v>0.622108555417997</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8513342205206303</v>
+        <v>0.9765146167631136</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8125187575888151</v>
+        <v>0.9541070471126589</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6562194642084601</v>
+        <v>0.9541070471126587</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.726497540335228</v>
+        <v>41.579675618381536</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.017633491727332435</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.011048957753682202</v>
-      </c>
+        <v>0.007700104870327601</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7145269282030043</v>
+        <v>0.9541070471126587</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8245894852606566</v>
+        <v>0.6549214860206818</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8245417438540209</v>
+        <v>0.9710598953955349</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7699504889316591</v>
+        <v>0.9437477371618441</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6103572917730554</v>
+        <v>0.9437477371618441</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.6993613293865915</v>
+        <v>33.55412527588848</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.01954811451379939</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.0089051830340922</v>
-      </c>
+        <v>0.008647271346012626</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5800396800827127</v>
+        <v>0.9437477371618442</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8446886422297333</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8480928956369529</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8112006806903892</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6504706651920836</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.582970587142988</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.017201137229421855</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.012625565467208298</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.7145269282030043</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>243.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9664764700832448</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9808102328597403</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9634777276452003</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9571342403531713</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.21810699588477367</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.41381279562972484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>243.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8714473212701759</v>
+        <v>0.9897001669311887</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8718023183446766</v>
+        <v>0.9851177475132903</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8334832857474516</v>
+        <v>0.9755526475039107</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7615413175508671</v>
+        <v>0.9693646512654719</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.2016460905349793</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.2249461812495246</v>
+        <v>1.4891711970067412</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>243.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8421559347259445</v>
+        <v>0.992395505361575</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.828107423663959</v>
+        <v>0.9886239677905317</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7559685154879671</v>
+        <v>0.9828016552504445</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6952081279634615</v>
+        <v>0.9734293555217075</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.683127572016461</v>
+        <v>0.8271604938271605</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.3308184628937154</v>
+        <v>1.6448526532777326</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>243.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8541971710914604</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8685545163597239</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8298188578559392</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7531366669444916</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.353909465020576</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0748126609936997</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>243.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8323613651966646</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8331774453039543</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7627635626982071</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6911830954401698</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.654320987654321</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2546820791266866</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7818930041152263</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.21810699588477367</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7818930041152263</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0205761316872428</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.00411522633744856</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.09053497942386832</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.02880658436213992</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.04938271604938271</v>
+        <v>0.7818930041152263</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.09465020576131687</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.012345679012345678</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.3662551440329218</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.40329218106995884</v>
+        <v>0.053497942386831275</v>
       </c>
       <c r="G27" t="n" s="229">
         <v>0.07407407407407407</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.04938271604938271</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.01646090534979424</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.05761316872427984</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.32510288065843623</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.18106995884773663</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0205761316872428</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.07818930041152264</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.024691358024691357</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.35802469135802467</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4403292181069959</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07818930041152264</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0205761316872428</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.024691358024691357</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.08641975308641975</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.40329218106995884</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.07818930041152264</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.3868312757201646</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7980515454786998</v>
+        <v>0.6627637139390781</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8203837185865934</v>
+        <v>0.7899620971048624</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.695466594953756</v>
+        <v>0.7359347058429471</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.695466594953756</v>
+        <v>0.556281639250411</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.567424022649653</v>
+        <v>3.7610454409233696</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.023770257508177666</v>
+        <v>0.01813296773727488</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.1584362139917697</v>
+        <v>2.422496570644719</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.385655863686011</v>
+        <v>0.963429835101913</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6954665949537561</v>
+        <v>0.5285460832567902</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.7980515454786998</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8203837185865934</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.695466594953756</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.695466594953756</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.4836737846965715</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.695466594953756</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.695466594953756</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.567424022649653</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.023770257508177666</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.695466594953756</v>
+        <v>0.6954665949537561</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.4836737846965715</v>
+        <v>0.19802339287333393</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.695466594953756</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.4836737846965715</v>
-      </c>
+        <v>0.6157562481885084</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4448322395406866</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.44483223954068674</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.6025146675399833</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.022904392963024635</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.695466594953756</v>
+        <v>0.44483223954068674</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.2981107853512135</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6915670898592023</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5285460832567903</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5285460832567903</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.2421961701282354</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.02573267114092525</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5285460832567902</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>243.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8936917293448379</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9207243330535357</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7678347412205074</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6954665949537563</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.9465020576131686</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2732215383583292</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>243.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9439366210949967</v>
+        <v>0.5742793055911412</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9207243330535356</v>
+        <v>0.7838714783769725</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7678347412205074</v>
+        <v>0.585414642365757</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6954665949537562</v>
+        <v>0.5205911891428162</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9506172839506173</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.21711298242630986</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>243.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8966065793468778</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8834292369882011</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8184521468466468</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7174605650774053</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.9465020576131686</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2732215383583292</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>243.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.938494734580439</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8501761634765106</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7557919580933696</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7013929523175976</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.3703703703703702</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7304595800326346</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.04938271604938271</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9506172839506173</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.04938271604938271</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.14814814814814814</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.03292181069958848</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4074074074074074</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.3004115226337449</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.06172839506172839</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.04938271604938271</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.14814814814814814</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.17695473251028807</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.09053497942386832</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.07818930041152264</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.4567901234567901</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8865028999595863</v>
+        <v>0.7143738929740755</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8868839028372697</v>
+        <v>0.84691627513742</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7967577731540191</v>
+        <v>0.7921332124803355</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.796757773154019</v>
+        <v>0.6483979334469141</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.840474743054354</v>
+        <v>5.532373058583976</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.014530977681223411</v>
+        <v>0.015409164211185282</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.9362139917695473</v>
+        <v>2.6117969821673523</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2477439423831456</v>
+        <v>0.8390754340092417</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7967577731540191</v>
+        <v>0.6320887070448099</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.796757773154019</v>
+        <v>0.8329370086382608</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.796757773154019</v>
+        <v>0.8346056146682781</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6348229490813513</v>
+        <v>0.7161572298383032</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.796757773154019</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.796757773154019</v>
-      </c>
+        <v>0.7161572298383032</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.046154456781335</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.02128424373761013</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.796757773154019</v>
+        <v>0.7161572298383033</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6348229490813513</v>
+        <v>0.33457422781576596</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.796757773154019</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6348229490813513</v>
-      </c>
+        <v>0.7745764115840494</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6320887070448098</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.63208870704481</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.436092988435643</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.021463698740944774</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.796757773154019</v>
+        <v>0.6320887070448099</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3404751919184552</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7476109610305604</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5969478634576288</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5969478634576291</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.9621371993142867</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.02383896989475318</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.596947863457629</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>243.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9499140948132034</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9478285111648675</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8460439475096345</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7967577731540189</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.0</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3422566418394</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>243.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9457015485213077</v>
+        <v>0.7109163400422529</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9478285111648675</v>
+        <v>0.8491714169316905</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8460439475096344</v>
+        <v>0.7153757796877964</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.796757773154019</v>
+        <v>0.6640850982167733</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.8724279835390947</v>
+        <v>0.9506172839506173</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2905333439864923</v>
+        <v>0.21711298242630986</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>243.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9167338566987687</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8811980725570907</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7964231845215387</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7326983241807977</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.2016460905349793</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.2249461812495246</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>243.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9317029578205323</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8945852912039232</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.824459768329186</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7428315914512755</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.683127572016461</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.3308184628937154</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.20164609053497942</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.13580246913580246</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.27983539094650206</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.22633744855967078</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.15637860082304528</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.04938271604938271</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9506172839506173</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.22633744855967078</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.11522633744855967</v>
-      </c>
-      <c r="D24" t="n" s="456">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.04938271604938271</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.09465020576131687</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.012345679012345678</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.3662551440329218</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.40329218106995884</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.04938271604938271</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.01646090534979424</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.05761316872427984</v>
+      </c>
+      <c r="E27" t="n" s="457">
         <v>0.32510288065843623</v>
       </c>
-      <c r="E24" t="n" s="457">
-        <v>0.22633744855967078</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.10699588477366255</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="F27" t="n" s="458">
+        <v>0.18106995884773663</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9806705114392547</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9831372754071086</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.966833822924048</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9668338229240478</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>58.302397693285634</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.002310520721371449</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.7839506172839507</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.5539969891152845</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9668338229240478</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5633211808110039</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5654265853939113</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.3941426626459327</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3941426626459328</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.3011071694443905</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05568258084415548</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.728395061728395</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2490890467004676</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.3941426626459327</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9668338229240478</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9668338229240478</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9347676411499294</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9668338229240478</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9668338229240478</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9668338229240478</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.39414266264593273</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.39414266264593273</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.15534843851762536</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.39414266264593273</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.39414266264593273</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.39414266264593273</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9347676411499294</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9668338229240478</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9347676411499294</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9668338229240478</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.15534843851762536</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.39414266264593273</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.15534843851762536</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.39414266264593273</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>243.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9908225039982886</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9916737928684128</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9750901148288751</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.966833822924048</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.4891711970067412</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8529219921300701</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8349079777574092</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5241617599384555</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.39414266264593273</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.2674897119341564</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5714566184974175</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>243.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9924838195549762</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9916737928684128</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9750901148288751</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9668338229240478</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.8271604938271605</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.6448526532777326</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8159519418155414</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8349079777574092</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5241617599384556</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.39414266264593273</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.1893004115226335</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4190151704643945</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7818930041152263</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.0205761316872428</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.00411522633744856</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.09053497942386832</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.02880658436213992</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.5308641975308642</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.11934156378600823</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.053497942386831275</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.1440329218106996</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.1522633744855967</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7818930041152263</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.02880658436213992</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.06172839506172839</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.053497942386831275</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.205761316872428</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.05761316872427984</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4279835390946502</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.16049382716049382</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5633211808110039</v>
+        <v>0.8865028999595863</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5654265853939113</v>
+        <v>0.8868839028372697</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.3941426626459327</v>
+        <v>0.7967577731540191</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3941426626459328</v>
+        <v>0.796757773154019</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.3011071694443905</v>
+        <v>7.840474743054354</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05568258084415548</v>
+        <v>0.014530977681223411</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.728395061728395</v>
+        <v>1.9362139917695473</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2490890467004676</v>
+        <v>1.2477439423831456</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.3941426626459327</v>
+        <v>0.7967577731540191</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.39414266264593273</v>
+        <v>0.796757773154019</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.39414266264593273</v>
+        <v>0.796757773154019</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.15534843851762536</v>
+        <v>0.6348229490813513</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.39414266264593273</v>
+        <v>0.796757773154019</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.39414266264593273</v>
+        <v>0.796757773154019</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.39414266264593273</v>
+        <v>0.796757773154019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.15534843851762536</v>
+        <v>0.6348229490813513</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.39414266264593273</v>
+        <v>0.796757773154019</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.15534843851762536</v>
+        <v>0.6348229490813513</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.39414266264593273</v>
+        <v>0.796757773154019</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>243.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8529219921300701</v>
+        <v>0.9499140948132034</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8349079777574092</v>
+        <v>0.9478285111648675</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5241617599384555</v>
+        <v>0.8460439475096345</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.39414266264593273</v>
+        <v>0.7967577731540189</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.2674897119341564</v>
+        <v>2.0</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5714566184974175</v>
+        <v>1.3422566418394</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>243.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8159519418155414</v>
+        <v>0.9457015485213077</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8349079777574092</v>
+        <v>0.9478285111648675</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5241617599384556</v>
+        <v>0.8460439475096344</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.39414266264593273</v>
+        <v>0.796757773154019</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.1893004115226335</v>
+        <v>1.8724279835390947</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.4190151704643945</v>
+        <v>1.2905333439864923</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.5308641975308642</v>
+        <v>0.20164609053497942</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.11934156378600823</v>
+        <v>0.13580246913580246</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.053497942386831275</v>
+        <v>0.27983539094650206</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.1440329218106996</v>
+        <v>0.22633744855967078</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.1522633744855967</v>
+        <v>0.15637860082304528</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.205761316872428</v>
+        <v>0.22633744855967078</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.14814814814814814</v>
+        <v>0.11522633744855967</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.05761316872427984</v>
+        <v>0.32510288065843623</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4279835390946502</v>
+        <v>0.22633744855967078</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.16049382716049382</v>
+        <v>0.10699588477366255</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8248390117926996</v>
+        <v>0.7943744719476054</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8325030143095674</v>
+        <v>0.8196265453630306</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9106471334202794</v>
+        <v>0.90499369910471</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3320087821753954</v>
+        <v>0.31243375071239954</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.970256693742513</v>
+        <v>4.544053042686689</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.01739362778717168</v>
+        <v>0.01885047879227016</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.2790123456790123</v>
+        <v>1.6950617283950618</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8559055012790149</v>
+        <v>0.757644441330922</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.28074584127460595</v>
+        <v>0.2553060970289635</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7994824264881637</v>
+        <v>0.7842651025497482</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8050527976453337</v>
+        <v>0.7973389458262832</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8839287259626732</v>
+        <v>0.8841398047809782</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.3145256434970013</v>
+        <v>0.30417825664274545</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>4.129594002486406</v>
+        <v>3.9343471742864833</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.019908622444721084</v>
+        <v>0.020368507692572146</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.036353759132954314</v>
+        <v>0.042542479127653354</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.27289921379801496</v>
+        <v>0.26782782330709864</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.8086960368505915</v>
+        <v>0.7583024171080752</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8153602754822764</v>
+        <v>0.7907030121020657</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8952900379818199</v>
+        <v>0.8793556514104599</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.329156843793312</v>
+        <v>0.29565889042031934</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.415952621311506</v>
+        <v>3.7778996250421875</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.019044536462309213</v>
+        <v>0.0219172898618629</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03750339272190273</v>
+        <v>0.04334534237606818</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.2821550510150707</v>
+        <v>0.25565700826851334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.8045028704787703</v>
+        <v>0.7669962200905752</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8086250134630983</v>
+        <v>0.7945717938502272</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.886902072880313</v>
+        <v>0.8808571272802415</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.31948836344272</v>
+        <v>0.3005841280579392</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>4.225343280727945</v>
+        <v>3.8678807002331723</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.019460744051702554</v>
+        <v>0.02100286268041512</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03587991438382666</v>
+        <v>0.042128332343207946</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.28054769542991986</v>
+        <v>0.2578447208342271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.8083103810657488</v>
+        <v>0.7987600372111242</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8144185492617544</v>
+        <v>0.8203096942617036</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8924368730827482</v>
+        <v>0.9032772316345108</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3277797769819714</v>
+        <v>0.33653421146514984</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>4.388469569679437</v>
+        <v>4.565130494331815</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.019058781894821353</v>
+        <v>0.019348911511213616</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03673351683234261</v>
+        <v>0.05595858767188074</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2810453987320056</v>
+        <v>0.2805476954299199</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.8043625447112928</v>
+        <v>0.7707879735845957</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8141835329781724</v>
+        <v>0.7963613124606846</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8858380954299724</v>
+        <v>0.8873865084312869</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.32743741860731074</v>
+        <v>0.3029015384735461</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.3816543604961105</v>
+        <v>3.910658245167369</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.01954679692944858</v>
+        <v>0.020721097812395627</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04021627763462646</v>
+        <v>0.06270924944146913</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.26017934167519374</v>
+        <v>0.24628036640320455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.8090425000485667</v>
+        <v>0.7822154149664308</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8185077056458883</v>
+        <v>0.8046682913607524</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8897883537055743</v>
+        <v>0.8921047473552763</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.33382067050444747</v>
+        <v>0.3139980642171442</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.509875796979505</v>
+        <v>4.119496506564994</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.0191037547377319</v>
+        <v>0.019634827177671045</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.039709336948592175</v>
+        <v>0.06039233518967956</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.2824546084724704</v>
+        <v>0.27036644711236224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.8084431701250822</v>
+        <v>0.7763281377431994</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.821376821447106</v>
+        <v>0.8084850558581202</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8707529896015143</v>
+        <v>0.9069378153004946</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.33815633961226627</v>
+        <v>0.31929181813596774</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.59837759075527</v>
+        <v>4.2215246412268055</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.018916766139235944</v>
+        <v>0.020702087918396787</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03182534749198165</v>
+        <v>0.06839769482897183</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2824546084724704</v>
+        <v>0.24628036640320455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.815583020930959</v>
+        <v>0.7867024540642478</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8248374773112801</v>
+        <v>0.8169076804123299</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8734925126722181</v>
+        <v>0.9082616466759674</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.34349619579534757</v>
+        <v>0.3314378631320733</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.7089837748974</v>
+        <v>4.46172555054211</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.01817744290172891</v>
+        <v>0.019380478046742602</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03065065583243762</v>
+        <v>0.06485332937421236</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2837795694908821</v>
+        <v>0.25311838446324975</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8167415847141052</v>
+        <v>0.7628009041505655</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8254024981739467</v>
+        <v>0.7982797244219865</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9132944038222958</v>
+        <v>0.878782509122249</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3443797483052682</v>
+        <v>0.30541405909448016</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.727458809784535</v>
+        <v>3.9573598743833682</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.018533845648994976</v>
+        <v>0.02167358260472732</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.044692291386747456</v>
+        <v>0.06303599552173307</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.28054769542991986</v>
+        <v>0.23313001230026803</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.8159328464904309</v>
+        <v>0.7706824157788948</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8237770000570594</v>
+        <v>0.8049166401530405</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9108822575810918</v>
+        <v>0.8833370602586279</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3418468212143097</v>
+        <v>0.31433867748462974</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.674628171826556</v>
+        <v>4.126013827035211</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.01846401333222387</v>
+        <v>0.020913655655557528</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04360279166755854</v>
+        <v>0.062249322334069414</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.26017934167519374</v>
+        <v>0.2578447208342271</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7016670533161653</v>
+        <v>0.6558593794191117</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7311767868400247</v>
+        <v>0.665542678282141</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7182598435625844</v>
+        <v>0.6860592741478044</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6169502307794116</v>
+        <v>0.6230094903661356</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.2016460905349793</v>
+        <v>0.21810699588477367</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.2249461812495246</v>
+        <v>0.41381279562972484</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6231930267454006</v>
+        <v>0.718902976528683</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6477701560990873</v>
+        <v>0.7152177868512098</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6120667900829194</v>
+        <v>0.7426102585545371</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5132570860205385</v>
+        <v>0.6007485828585657</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.683127572016461</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.3308184628937154</v>
+        <v>1.4891711970067412</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6639188311226891</v>
+        <v>0.6896679775178327</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.702886302013047</v>
+        <v>0.6864994869226083</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6856475926802582</v>
+        <v>0.7134261020674839</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5842499730052895</v>
+        <v>0.546520255369257</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.353909465020576</v>
+        <v>0.8271604938271605</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0748126609936997</v>
+        <v>1.6448526532777326</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6227346624466701</v>
+        <v>0.36025082500539746</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6556202641362281</v>
+        <v>0.4768801033093869</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6254481965380794</v>
+        <v>0.41124658653361534</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5198512282161518</v>
+        <v>0.33493126031392</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.654320987654321</v>
+        <v>0.9506172839506173</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2546820791266866</v>
+        <v>0.21711298242630986</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.659663699330211</v>
+        <v>0.6302131150264679</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6575719125285739</v>
+        <v>0.6729870247289618</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6344406399240112</v>
+        <v>0.6424114951427724</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5560775962600072</v>
+        <v>0.5166683957555169</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.0</v>
+        <v>3.2016460905349793</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3422566418394</v>
+        <v>1.2249461812495246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6178265123505258</v>
+        <v>0.5594945617086791</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6211835422562376</v>
+        <v>0.6082848970517075</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5921748162046986</v>
+        <v>0.569003092166666</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5106781403220578</v>
+        <v>0.42023445397424386</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.8724279835390947</v>
+        <v>3.683127572016461</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2905333439864923</v>
+        <v>1.3308184628937154</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6386036878114617</v>
+        <v>0.6317398353506358</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5964676238785828</v>
+        <v>0.5774178356072466</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6153311108284584</v>
+        <v>0.48499193380505756</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.516861354700787</v>
+        <v>0.480160331400796</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.7407407407407407</v>
+        <v>1.2674897119341564</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.4891711970067412</v>
+        <v>1.5714566184974175</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6099806537222352</v>
+        <v>0.5439662407676864</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5660272359505819</v>
+        <v>0.5065961232739888</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5830231749151866</v>
+        <v>0.4120203589506222</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.46639540285031256</v>
+        <v>0.39118959715161067</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.8271604938271605</v>
+        <v>2.1893004115226335</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.6448526532777326</v>
+        <v>1.4190151704643945</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5894546002322409</v>
+        <v>0.6871115339276995</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.56099045588861</v>
+        <v>0.6583369050641468</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.46956911120683437</v>
+        <v>0.6351353584917575</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.44894032321584165</v>
+        <v>0.5744927012399875</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.2674897119341564</v>
+        <v>2.0</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5714566184974175</v>
+        <v>1.3422566418394</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>243.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5721481596174027</v>
+        <v>0.6341281450202918</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5754296618519489</v>
+        <v>0.6062988336990286</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.49042466029248094</v>
+        <v>0.5765518319205879</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.4439609225129218</v>
+        <v>0.5143786490904502</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.1893004115226335</v>
+        <v>1.8724279835390947</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.4190151704643945</v>
+        <v>1.2905333439864923</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.04938271604938271</v>
+        <v>0.7818930041152263</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.09465020576131687</v>
+        <v>0.21810699588477367</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.012345679012345678</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.3662551440329218</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.40329218106995884</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.07407407407407407</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.04938271604938271</v>
+        <v>0.7818930041152263</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.01646090534979424</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.05761316872427984</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.32510288065843623</v>
+        <v>0.09053497942386832</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.18106995884773663</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.37037037037037035</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0205761316872428</v>
+        <v>0.7818930041152263</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.07818930041152264</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.024691358024691357</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.35802469135802467</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.4403292181069959</v>
+        <v>0.053497942386831275</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.07818930041152264</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.0205761316872428</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.024691358024691357</v>
+        <v>0.9506172839506173</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.08641975308641975</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.40329218106995884</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.07818930041152264</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.3868312757201646</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.20164609053497942</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.13580246913580246</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.27983539094650206</v>
+        <v>0.012345679012345678</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.22633744855967078</v>
+        <v>0.3662551440329218</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.15637860082304528</v>
+        <v>0.40329218106995884</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.22633744855967078</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.11522633744855967</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="D44" t="n" s="799">
+        <v>0.05761316872427984</v>
+      </c>
+      <c r="E44" t="n" s="800">
         <v>0.32510288065843623</v>
       </c>
-      <c r="E44" t="n" s="800">
-        <v>0.22633744855967078</v>
-      </c>
       <c r="F44" t="n" s="801">
-        <v>0.10699588477366255</v>
+        <v>0.18106995884773663</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7818930041152263</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.0205761316872428</v>
+        <v>0.11934156378600823</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.00411522633744856</v>
+        <v>0.053497942386831275</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.09053497942386832</v>
+        <v>0.1440329218106996</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.07407407407407407</v>
+        <v>0.1522633744855967</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.02880658436213992</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7818930041152263</v>
+        <v>0.205761316872428</v>
       </c>
       <c r="C46" t="n" s="798">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="D46" t="n" s="799">
+        <v>0.05761316872427984</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.4279835390946502</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.16049382716049382</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.02880658436213992</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.06172839506172839</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.053497942386831275</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.07407407407407407</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.5308641975308642</v>
+        <v>0.20164609053497942</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.11934156378600823</v>
+        <v>0.13580246913580246</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.053497942386831275</v>
+        <v>0.27983539094650206</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.1440329218106996</v>
+        <v>0.22633744855967078</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.1522633744855967</v>
+        <v>0.15637860082304528</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.205761316872428</v>
+        <v>0.22633744855967078</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.14814814814814814</v>
+        <v>0.11522633744855967</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.05761316872427984</v>
+        <v>0.32510288065843623</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4279835390946502</v>
+        <v>0.22633744855967078</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.16049382716049382</v>
+        <v>0.10699588477366255</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
